--- a/data/trans_orig/P1402-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Clase-trans_orig.xlsx
@@ -747,16 +747,16 @@
         <v>16081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35081</v>
+        <v>35113</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05147750272945197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03394317509303332</v>
+        <v>0.03394216645099192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07404560858416241</v>
+        <v>0.07411378624391401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>5915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2154</v>
+        <v>2186</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12183</v>
+        <v>12375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01928603218400428</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007024074314968894</v>
+        <v>0.007128435810658741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03972608573541002</v>
+        <v>0.04035020664472491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>30303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21170</v>
+        <v>20609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43868</v>
+        <v>41884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03882786948680072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0271252909540701</v>
+        <v>0.02640614743122499</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05620872155552688</v>
+        <v>0.05366587101499803</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>449387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438695</v>
+        <v>438663</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>457695</v>
@@ -824,10 +824,10 @@
         <v>0.948522497270548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9259543914158376</v>
+        <v>0.9258862137560859</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9660568249069671</v>
+        <v>0.9660578335490081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -836,19 +836,19 @@
         <v>300765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294497</v>
+        <v>294305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304526</v>
+        <v>304494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9807139678159957</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9602739142645901</v>
+        <v>0.9596497933552757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9929759256850312</v>
+        <v>0.9928715641893413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>722</v>
@@ -857,19 +857,19 @@
         <v>750154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736589</v>
+        <v>738573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759287</v>
+        <v>759848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9611721305131993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.943791278444473</v>
+        <v>0.9463341289850019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9728747090459299</v>
+        <v>0.9735938525687747</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>17698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11160</v>
+        <v>10931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26468</v>
+        <v>26607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0482329633295978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03041484144624709</v>
+        <v>0.02978931397402229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07213386787416855</v>
+        <v>0.07251183068979394</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>8407</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3852</v>
+        <v>3376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16627</v>
+        <v>16272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02260690515710565</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01035948938240143</v>
+        <v>0.009079443336404605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04471207921343159</v>
+        <v>0.04375768833042755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1003,19 +1003,19 @@
         <v>26105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17397</v>
+        <v>17111</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37946</v>
+        <v>38433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03533442041496159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02354813763533146</v>
+        <v>0.02316083948856858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05136161726945727</v>
+        <v>0.05202027015918189</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>349236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>340466</v>
+        <v>340327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355774</v>
+        <v>356003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9517670366704022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9278661321258311</v>
+        <v>0.9274881693102068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9695851585537528</v>
+        <v>0.9702106860259778</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>356</v>
@@ -1053,19 +1053,19 @@
         <v>363458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>355238</v>
+        <v>355593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368013</v>
+        <v>368489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9773930948428944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9552879207865684</v>
+        <v>0.9562423116695725</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9896405106175985</v>
+        <v>0.9909205566635954</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>687</v>
@@ -1074,19 +1074,19 @@
         <v>712694</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700853</v>
+        <v>700366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>721402</v>
+        <v>721688</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9646655795850384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9486383827305427</v>
+        <v>0.9479797298408177</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9764518623646685</v>
+        <v>0.9768391605114314</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>27472</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18637</v>
+        <v>19844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38574</v>
+        <v>38772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05064993830283528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03436150282473042</v>
+        <v>0.03658634932972499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07111913668897699</v>
+        <v>0.07148460060498907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>13565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7791</v>
+        <v>8030</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22871</v>
+        <v>21530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08084619881657755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04643455509349925</v>
+        <v>0.04785826573854054</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1363114732704785</v>
+        <v>0.1283202490213106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>41037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30298</v>
+        <v>30465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54107</v>
+        <v>55836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05778397528530831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0426625600420296</v>
+        <v>0.04289781235470637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07618902176338423</v>
+        <v>0.07862294699183385</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>514917</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503815</v>
+        <v>503617</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>523752</v>
+        <v>522545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9493500616971647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.928880863311023</v>
+        <v>0.9285153993950106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9656384971752695</v>
+        <v>0.963413650670275</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1270,19 +1270,19 @@
         <v>154217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144911</v>
+        <v>146252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159991</v>
+        <v>159752</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9191538011834225</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8636885267295213</v>
+        <v>0.8716797509786893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9535654449065007</v>
+        <v>0.9521417342614594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>654</v>
@@ -1291,19 +1291,19 @@
         <v>669134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656064</v>
+        <v>654335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>679873</v>
+        <v>679706</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9422160247146917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9238109782366157</v>
+        <v>0.9213770530081662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9573374399579704</v>
+        <v>0.9571021876452936</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>93592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76779</v>
+        <v>75058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114082</v>
+        <v>112036</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07557863291854883</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06200213267528339</v>
+        <v>0.06061220668363657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09212555692143819</v>
+        <v>0.09047330031198057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1416,19 +1416,19 @@
         <v>32832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23383</v>
+        <v>22982</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46356</v>
+        <v>45914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04596467677236449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03273571331004475</v>
+        <v>0.03217456060680341</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06489885042727396</v>
+        <v>0.06427903805452562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -1437,19 +1437,19 @@
         <v>126424</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104839</v>
+        <v>107364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148479</v>
+        <v>149019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06474558943738312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05369121895549395</v>
+        <v>0.05498467877864307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07604070622943475</v>
+        <v>0.07631755060068514</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1144742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1124252</v>
+        <v>1126298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1161555</v>
+        <v>1163276</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9244213670814512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9078744430785621</v>
+        <v>0.9095266996880198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379978673247168</v>
+        <v>0.9393877933163635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>661</v>
@@ -1487,19 +1487,19 @@
         <v>681453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>667929</v>
+        <v>668371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>690902</v>
+        <v>691303</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9540353232276355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9351011495727261</v>
+        <v>0.9357209619454744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9672642866899552</v>
+        <v>0.9678254393931967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1787</v>
@@ -1508,19 +1508,19 @@
         <v>1826196</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1804141</v>
+        <v>1803601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1847781</v>
+        <v>1845256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9352544105626168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9239592937705653</v>
+        <v>0.9236824493993149</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9463087810445064</v>
+        <v>0.945015321221357</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>22316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14580</v>
+        <v>14158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32996</v>
+        <v>31664</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06365952313490852</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04159168617854452</v>
+        <v>0.04038645313611721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09412610324732189</v>
+        <v>0.09032486951082211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1633,19 +1633,19 @@
         <v>35058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24854</v>
+        <v>24860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48869</v>
+        <v>48249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06164084281029523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04369850382368839</v>
+        <v>0.04370905167202439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08592286659446145</v>
+        <v>0.08483343693715092</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1654,19 +1654,19 @@
         <v>57375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43411</v>
+        <v>43754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>73282</v>
+        <v>73379</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0624106171517239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04722174586909445</v>
+        <v>0.04759408681988491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07971488994106279</v>
+        <v>0.07982036921277796</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>328239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>317559</v>
+        <v>318891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>335975</v>
+        <v>336397</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9363404768650915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9058738967526776</v>
+        <v>0.9096751304891776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9584083138214554</v>
+        <v>0.9596135468638828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>506</v>
@@ -1704,19 +1704,19 @@
         <v>533694</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>519883</v>
+        <v>520503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>543898</v>
+        <v>543892</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9383591571897048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9140771334055385</v>
+        <v>0.9151665630628494</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9563014961763115</v>
+        <v>0.9562909483279756</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>824</v>
@@ -1725,19 +1725,19 @@
         <v>861932</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>846025</v>
+        <v>845928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>875896</v>
+        <v>875553</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9375893828482761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.920285110058937</v>
+        <v>0.9201796307872221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9527782541309056</v>
+        <v>0.9524059131801151</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>133473</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113657</v>
+        <v>111935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156977</v>
+        <v>154721</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1068841140519877</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09101554840179303</v>
+        <v>0.08963654063629944</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1257063958114022</v>
+        <v>0.1238998990277428</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -1863,19 +1863,19 @@
         <v>133473</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111039</v>
+        <v>113765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155886</v>
+        <v>158845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08628054724360684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0717790965622401</v>
+        <v>0.07354107010489316</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1007692630321046</v>
+        <v>0.1026823486216888</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1115287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1091783</v>
+        <v>1094039</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1135103</v>
+        <v>1136825</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8931158859480124</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8742936041885978</v>
+        <v>0.8761001009722572</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9089844515982066</v>
+        <v>0.9103634593637006</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1413</v>
@@ -1926,19 +1926,19 @@
         <v>1413487</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1391074</v>
+        <v>1388115</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1435921</v>
+        <v>1433195</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9137194527563932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8992307369678951</v>
+        <v>0.8973176513783112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9282209034377591</v>
+        <v>0.9264589298951068</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>185467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159655</v>
+        <v>160370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>214512</v>
+        <v>211262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05671442055240054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04882129938456272</v>
+        <v>0.04903984664824821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06559628694094999</v>
+        <v>0.06460225425032161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>224</v>
@@ -2051,19 +2051,19 @@
         <v>229249</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>200235</v>
+        <v>201403</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>259818</v>
+        <v>261221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06786272693286759</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05927402270372324</v>
+        <v>0.05961966421506197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07691185884418028</v>
+        <v>0.07732730631927856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>416</v>
@@ -2072,19 +2072,19 @@
         <v>414716</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>378532</v>
+        <v>377678</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>455533</v>
+        <v>452973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06237906898256784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05693659478186309</v>
+        <v>0.05680808253877027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06851863659258853</v>
+        <v>0.06813355744589021</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3084723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3055678</v>
+        <v>3058928</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3110535</v>
+        <v>3109820</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9432855794475995</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.93440371305905</v>
+        <v>0.9353977457496784</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9511787006154372</v>
+        <v>0.9509601533517518</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3072</v>
@@ -2122,19 +2122,19 @@
         <v>3148875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3118306</v>
+        <v>3116903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3177889</v>
+        <v>3176721</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9321372730671325</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9230881411558198</v>
+        <v>0.9226726936807216</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9407259772962768</v>
+        <v>0.9403803357849382</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6087</v>
@@ -2143,19 +2143,19 @@
         <v>6233598</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6192781</v>
+        <v>6195341</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6269782</v>
+        <v>6270636</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9376209310174322</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9314813634074114</v>
+        <v>0.9318664425541098</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9430634052181369</v>
+        <v>0.9431919174612297</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>17174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10385</v>
+        <v>9735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29116</v>
+        <v>27688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03928162263603133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02375308354125927</v>
+        <v>0.02226670249468468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06659443531500937</v>
+        <v>0.06332896572132039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2510,19 +2510,19 @@
         <v>11024</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5424</v>
+        <v>5844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19658</v>
+        <v>19255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03505820653607849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01724929085301346</v>
+        <v>0.01858466541739657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06251383027817314</v>
+        <v>0.06123156350655694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2531,19 +2531,19 @@
         <v>28199</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18569</v>
+        <v>18384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42195</v>
+        <v>39657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0375147835514085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02470365712933621</v>
+        <v>0.02445784923687334</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05613530438243231</v>
+        <v>0.0527594879024212</v>
       </c>
     </row>
     <row r="5">
@@ -2560,19 +2560,19 @@
         <v>420037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408095</v>
+        <v>409523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426826</v>
+        <v>427476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9607183773639687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9334055646849906</v>
+        <v>0.9366710342786796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9762469164587407</v>
+        <v>0.9777332975053153</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>273</v>
@@ -2581,19 +2581,19 @@
         <v>303430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294796</v>
+        <v>295199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309030</v>
+        <v>308610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9649417934639215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9374861697218269</v>
+        <v>0.938768436493443</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827507091469866</v>
+        <v>0.9814153345826034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>661</v>
@@ -2602,19 +2602,19 @@
         <v>723466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>709470</v>
+        <v>712008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>733096</v>
+        <v>733281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9624852164485915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9438646956175671</v>
+        <v>0.9472405120975786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9752963428706638</v>
+        <v>0.9755421507631267</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>22878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14980</v>
+        <v>14357</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33058</v>
+        <v>33219</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05462706574833294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03576828709650765</v>
+        <v>0.0342812152396656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07893578547158668</v>
+        <v>0.07932096809095543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2727,19 +2727,19 @@
         <v>9106</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4104</v>
+        <v>4194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18757</v>
+        <v>17175</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02693868018144047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01214248214567247</v>
+        <v>0.01240879726105617</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05549363611747073</v>
+        <v>0.05081052070467028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2748,19 +2748,19 @@
         <v>31983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21781</v>
+        <v>22490</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45886</v>
+        <v>45332</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04226067833434481</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02877999349781556</v>
+        <v>0.02971743378635917</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06063079620552023</v>
+        <v>0.0598991591530334</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>395919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385739</v>
+        <v>385578</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>403817</v>
+        <v>404440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.945372934251667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9210642145284132</v>
+        <v>0.9206790319090443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9642317129034922</v>
+        <v>0.9657187847603342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -2798,19 +2798,19 @@
         <v>328905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>319254</v>
+        <v>320836</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>333907</v>
+        <v>333817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9730613198185596</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9445063638825303</v>
+        <v>0.949189479295329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9878575178543275</v>
+        <v>0.9875912027389439</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -2819,19 +2819,19 @@
         <v>724825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>710922</v>
+        <v>711476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>735027</v>
+        <v>734318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9577393216656552</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9393692037944795</v>
+        <v>0.9401008408469663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9712200065021843</v>
+        <v>0.9702825662136406</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>72344</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56496</v>
+        <v>56929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90903</v>
+        <v>92792</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1149384381989743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0897600349685925</v>
+        <v>0.09044784757161421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1444252368916092</v>
+        <v>0.1474254238867795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -2944,19 +2944,19 @@
         <v>16048</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9378</v>
+        <v>9741</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26080</v>
+        <v>25580</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06169237832747163</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03605284613338229</v>
+        <v>0.03744503777716723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1002596289028813</v>
+        <v>0.09833417097839817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -2965,19 +2965,19 @@
         <v>88392</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71220</v>
+        <v>71991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107012</v>
+        <v>110558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09936769260831739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08006399303507453</v>
+        <v>0.08092974134849028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1202993273229765</v>
+        <v>0.1242859786125958</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>557071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538512</v>
+        <v>536623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>572919</v>
+        <v>572486</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8850615618010257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8555747631083908</v>
+        <v>0.8525745761132204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9102399650314071</v>
+        <v>0.9095521524283857</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -3015,19 +3015,19 @@
         <v>244081</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234049</v>
+        <v>234549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250751</v>
+        <v>250388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9383076216725283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8997403710971188</v>
+        <v>0.9016658290216019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9639471538666178</v>
+        <v>0.9625549622228329</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>755</v>
@@ -3036,19 +3036,19 @@
         <v>801152</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>782532</v>
+        <v>778986</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818324</v>
+        <v>817553</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9006323073916827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8797006726770235</v>
+        <v>0.8757140213874036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9199360069649255</v>
+        <v>0.9190702586515097</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>103237</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84652</v>
+        <v>85364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125542</v>
+        <v>125909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08907350041538233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07303788373545399</v>
+        <v>0.07365288136087965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1083184873426402</v>
+        <v>0.1086350727020989</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -3161,19 +3161,19 @@
         <v>43393</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32603</v>
+        <v>31561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56635</v>
+        <v>58244</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05674412649153428</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04263407667784908</v>
+        <v>0.04127081627534371</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07406007121089549</v>
+        <v>0.07616383100537266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -3182,19 +3182,19 @@
         <v>146630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124078</v>
+        <v>125474</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171525</v>
+        <v>172498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07622191979059084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06449837104235062</v>
+        <v>0.06522445699442206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08916258489218139</v>
+        <v>0.08966840536852988</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>1055772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1033467</v>
+        <v>1033100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1074357</v>
+        <v>1073645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9109264995846177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8916815126573598</v>
+        <v>0.8913649272979011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9269621162645461</v>
+        <v>0.9263471186391202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>669</v>
@@ -3232,19 +3232,19 @@
         <v>721329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>708087</v>
+        <v>706478</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>732119</v>
+        <v>733161</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9432558735084657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9259399287891045</v>
+        <v>0.9238361689946273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9573659233221509</v>
+        <v>0.9587291837246562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1656</v>
@@ -3253,19 +3253,19 @@
         <v>1777101</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1752206</v>
+        <v>1751233</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1799653</v>
+        <v>1798257</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9237780802094091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9108374151078186</v>
+        <v>0.9103315946314702</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9355016289576494</v>
+        <v>0.934775543005578</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>35776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25248</v>
+        <v>24972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51142</v>
+        <v>48671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07006635061235211</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04944841842319211</v>
+        <v>0.04890746543076393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1001615492668061</v>
+        <v>0.09532146170236083</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -3378,19 +3378,19 @@
         <v>72236</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57443</v>
+        <v>55576</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90103</v>
+        <v>90322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0950164386408667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0755588683519296</v>
+        <v>0.07310235032172265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1185177722799212</v>
+        <v>0.1188057393620986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -3399,19 +3399,19 @@
         <v>108012</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88315</v>
+        <v>90247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>131332</v>
+        <v>130666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08499204826902958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06949342809897485</v>
+        <v>0.07101348476437885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1033421519299739</v>
+        <v>0.1028183663809222</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>474820</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>459454</v>
+        <v>461925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485348</v>
+        <v>485624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9299336493876479</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8998384507331938</v>
+        <v>0.9046785382976392</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9505515815768077</v>
+        <v>0.951092534569236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>633</v>
@@ -3449,19 +3449,19 @@
         <v>688010</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>670143</v>
+        <v>669924</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>702803</v>
+        <v>704670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9049835613591333</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8814822277200789</v>
+        <v>0.8811942606379014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9244411316480704</v>
+        <v>0.9268976496782774</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1088</v>
@@ -3470,19 +3470,19 @@
         <v>1162831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1139511</v>
+        <v>1140177</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1182528</v>
+        <v>1180596</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9150079517309704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.896657848070026</v>
+        <v>0.8971816336190775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9305065719010251</v>
+        <v>0.9289865152356211</v>
       </c>
     </row>
     <row r="18">
@@ -3574,19 +3574,19 @@
         <v>5718</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13877</v>
+        <v>12626</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02142378622412026</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007287643400929588</v>
+        <v>0.007279421054285072</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05199840928085417</v>
+        <v>0.04731050954932282</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -3595,19 +3595,19 @@
         <v>155396</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133860</v>
+        <v>132536</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180858</v>
+        <v>178745</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1400780447124436</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1206655479861493</v>
+        <v>0.1194720556810767</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1630303274028948</v>
+        <v>0.1611257596564833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -3616,19 +3616,19 @@
         <v>161113</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137930</v>
+        <v>136287</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187580</v>
+        <v>186557</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1170683705715624</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1002229599677385</v>
+        <v>0.09902872490286772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1362999436166604</v>
+        <v>0.1355566018855535</v>
       </c>
     </row>
     <row r="20">
@@ -3645,19 +3645,19 @@
         <v>261164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253005</v>
+        <v>254256</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264937</v>
+        <v>264939</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9785762137758798</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.948001590719146</v>
+        <v>0.9526894904506815</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9927123565990704</v>
+        <v>0.992720578945715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>897</v>
@@ -3666,19 +3666,19 @@
         <v>953955</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>928493</v>
+        <v>930606</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>975491</v>
+        <v>976815</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8599219552875563</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8369696725971051</v>
+        <v>0.8388742403435167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8793344520138506</v>
+        <v>0.8805279443189233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1157</v>
@@ -3687,19 +3687,19 @@
         <v>1215120</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1188653</v>
+        <v>1189676</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1238303</v>
+        <v>1239946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8829316294284376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8637000563833396</v>
+        <v>0.8644433981144466</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8997770400322614</v>
+        <v>0.9009712750971324</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>257126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227099</v>
+        <v>225549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>289383</v>
+        <v>289179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07514113738045307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06636609124341053</v>
+        <v>0.06591308934152766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08456780048978299</v>
+        <v>0.08450813430520769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>290</v>
@@ -3812,19 +3812,19 @@
         <v>307203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>276705</v>
+        <v>275838</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>341960</v>
+        <v>339574</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08661131642716784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07801297945870458</v>
+        <v>0.07776846372885243</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09641050085750118</v>
+        <v>0.09573782422918659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>526</v>
@@ -3833,19 +3833,19 @@
         <v>564329</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>511974</v>
+        <v>516323</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>604925</v>
+        <v>609186</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08097910119444543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07346626765143953</v>
+        <v>0.07409043333957643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08680445807791214</v>
+        <v>0.08741592643892868</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>3164784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3132527</v>
+        <v>3132731</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3194811</v>
+        <v>3196361</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.924858862619547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9154321995102169</v>
+        <v>0.9154918656947922</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9336339087565894</v>
+        <v>0.9340869106584723</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2998</v>
@@ -3883,19 +3883,19 @@
         <v>3239712</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3204955</v>
+        <v>3207341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3270210</v>
+        <v>3271077</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9133886835728322</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9035894991424989</v>
+        <v>0.9042621757708134</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9219870205412954</v>
+        <v>0.9222315362711475</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5967</v>
@@ -3904,19 +3904,19 @@
         <v>6404496</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6363900</v>
+        <v>6359639</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6456851</v>
+        <v>6452502</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9190208988055546</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.913195541922088</v>
+        <v>0.9125840735610716</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9265337323485607</v>
+        <v>0.9259095666604238</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>31667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22183</v>
+        <v>21854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44796</v>
+        <v>45744</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07379948339191923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05169681795216439</v>
+        <v>0.05093013406205166</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1043972227922454</v>
+        <v>0.1066073572472809</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4271,19 +4271,19 @@
         <v>16099</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9279</v>
+        <v>8955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26690</v>
+        <v>25735</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04638878297928967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02673521699170991</v>
+        <v>0.0258016857881163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07690530959002095</v>
+        <v>0.07415277998769225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4292,19 +4292,19 @@
         <v>47766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33850</v>
+        <v>35850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63363</v>
+        <v>64231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06154276000405683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04361297276272304</v>
+        <v>0.04619027697880825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08163757335102968</v>
+        <v>0.08275657932881768</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>397425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384296</v>
+        <v>383348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406909</v>
+        <v>407238</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9262005166080808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8956027772077547</v>
+        <v>0.8933926427527192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9483031820478358</v>
+        <v>0.9490698659379484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4342,19 +4342,19 @@
         <v>330956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>320365</v>
+        <v>321320</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337776</v>
+        <v>338100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9536112170207103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9230946904099792</v>
+        <v>0.9258472200123077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9732647830082901</v>
+        <v>0.9741983142118836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>685</v>
@@ -4363,19 +4363,19 @@
         <v>728381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>712784</v>
+        <v>711916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>742297</v>
+        <v>740297</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9384572399959432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9183624266489705</v>
+        <v>0.9172434206711825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9563870272372771</v>
+        <v>0.9538097230211918</v>
       </c>
     </row>
     <row r="6">
@@ -4467,19 +4467,19 @@
         <v>26937</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18179</v>
+        <v>18235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38344</v>
+        <v>39018</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07140801918881957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04819165100326446</v>
+        <v>0.04833868777599347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1016471465322311</v>
+        <v>0.1034324606819326</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4488,19 +4488,19 @@
         <v>11031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5617</v>
+        <v>5468</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22456</v>
+        <v>20914</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02963166160174566</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01508925167200441</v>
+        <v>0.01468948456347731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06032177147884806</v>
+        <v>0.05617787261094666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -4509,19 +4509,19 @@
         <v>37968</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26220</v>
+        <v>26889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52561</v>
+        <v>51180</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05065789815339299</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0349836144421722</v>
+        <v>0.03587527540978253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07012759917251409</v>
+        <v>0.068285223595153</v>
       </c>
     </row>
     <row r="8">
@@ -4538,19 +4538,19 @@
         <v>350290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>338883</v>
+        <v>338209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359048</v>
+        <v>358992</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9285919808111804</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8983528534677688</v>
+        <v>0.8965675393180663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9518083489967355</v>
+        <v>0.9516613122240064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>343</v>
@@ -4559,19 +4559,19 @@
         <v>361242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349817</v>
+        <v>351359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366656</v>
+        <v>366805</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9703683383982543</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9396782285211519</v>
+        <v>0.9438221273890532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849107483279955</v>
+        <v>0.9853105154365227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>670</v>
@@ -4580,19 +4580,19 @@
         <v>711532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>696939</v>
+        <v>698320</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>723280</v>
+        <v>722611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9493421018466071</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9298724008274859</v>
+        <v>0.9317147764048469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9650163855578276</v>
+        <v>0.9641247245902175</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>53282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40823</v>
+        <v>41291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67842</v>
+        <v>69287</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1020898589974149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07821768420938187</v>
+        <v>0.07911364416008808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1299862605298888</v>
+        <v>0.1327557602451638</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -4705,19 +4705,19 @@
         <v>9839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4806</v>
+        <v>4886</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19180</v>
+        <v>18815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05922920875115619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02892809837295913</v>
+        <v>0.02941247831690079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1154538669765591</v>
+        <v>0.1132595897807039</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -4726,19 +4726,19 @@
         <v>63121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48657</v>
+        <v>47796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79065</v>
+        <v>78905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09174137972495482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07071816137800474</v>
+        <v>0.06946729898846021</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1149141588765028</v>
+        <v>0.1146818947988626</v>
       </c>
     </row>
     <row r="11">
@@ -4755,19 +4755,19 @@
         <v>468632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454072</v>
+        <v>452627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481091</v>
+        <v>480623</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8979101410025851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8700137394701113</v>
+        <v>0.8672442397548366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9217823157906182</v>
+        <v>0.920886355839912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -4776,19 +4776,19 @@
         <v>156284</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146943</v>
+        <v>147308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161317</v>
+        <v>161237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9407707912488438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8845461330234407</v>
+        <v>0.8867404102192958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9710719016270407</v>
+        <v>0.9705875216830991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>593</v>
@@ -4797,19 +4797,19 @@
         <v>624915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>608971</v>
+        <v>609131</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>639379</v>
+        <v>640240</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9082586202750452</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8850858411234972</v>
+        <v>0.8853181052011375</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.929281838621995</v>
+        <v>0.9305327010115402</v>
       </c>
     </row>
     <row r="12">
@@ -4901,19 +4901,19 @@
         <v>112540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93831</v>
+        <v>92658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134022</v>
+        <v>133722</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09789176798152373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08161760214551551</v>
+        <v>0.08059732292780653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1165777668634917</v>
+        <v>0.1163162029899441</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -4922,19 +4922,19 @@
         <v>32424</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22249</v>
+        <v>22190</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45740</v>
+        <v>45699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03926023810747443</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02693970907227236</v>
+        <v>0.02686792473953131</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05538390561821045</v>
+        <v>0.05533387808061423</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -4943,19 +4943,19 @@
         <v>144964</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123342</v>
+        <v>122473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167718</v>
+        <v>171877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07338049676633358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06243535385770048</v>
+        <v>0.06199532964393536</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08489823880319093</v>
+        <v>0.08700380392954382</v>
       </c>
     </row>
     <row r="14">
@@ -4972,19 +4972,19 @@
         <v>1037098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1015616</v>
+        <v>1015916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1055807</v>
+        <v>1056980</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9021082320184762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8834222331365085</v>
+        <v>0.8836837970100559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9183823978544846</v>
+        <v>0.9194026770721936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>769</v>
@@ -4993,19 +4993,19 @@
         <v>793452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>780136</v>
+        <v>780177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>803627</v>
+        <v>803686</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607397618925255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.94461609438179</v>
+        <v>0.9446661219193858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9730602909277278</v>
+        <v>0.9731320752604687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1760</v>
@@ -5014,19 +5014,19 @@
         <v>1830550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1807796</v>
+        <v>1803637</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1852172</v>
+        <v>1853041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9266195032336664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9151017611968092</v>
+        <v>0.9129961960704559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9375646461422997</v>
+        <v>0.9380046703560646</v>
       </c>
     </row>
     <row r="15">
@@ -5118,19 +5118,19 @@
         <v>69251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55975</v>
+        <v>53930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86085</v>
+        <v>84538</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1115678733127744</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09018033821424677</v>
+        <v>0.08688515451094764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1386895539952295</v>
+        <v>0.1361958498646616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -5139,19 +5139,19 @@
         <v>72150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56450</v>
+        <v>56961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90474</v>
+        <v>89913</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09773157018047186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0764655156554596</v>
+        <v>0.07715721663702241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1225532032145972</v>
+        <v>0.1217935004992967</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -5160,19 +5160,19 @@
         <v>141401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121534</v>
+        <v>119541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163312</v>
+        <v>166474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1040513572637432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08943210710927854</v>
+        <v>0.08796543637872682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1201754212076823</v>
+        <v>0.1225019643107826</v>
       </c>
     </row>
     <row r="17">
@@ -5189,19 +5189,19 @@
         <v>551455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>534621</v>
+        <v>536168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564731</v>
+        <v>566776</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8884321266872256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8613104460047707</v>
+        <v>0.8638041501353385</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9098196617857532</v>
+        <v>0.9131148454890525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>635</v>
@@ -5210,19 +5210,19 @@
         <v>666094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>647770</v>
+        <v>648331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>681794</v>
+        <v>681283</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9022684298195282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8774467967854028</v>
+        <v>0.8782064995007032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9235344843445404</v>
+        <v>0.9228427833629775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1159</v>
@@ -5231,19 +5231,19 @@
         <v>1217549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1195638</v>
+        <v>1192476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1237416</v>
+        <v>1239409</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8959486427362567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8798245787923178</v>
+        <v>0.8774980356892171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9105678928907216</v>
+        <v>0.9120345636212729</v>
       </c>
     </row>
     <row r="18">
@@ -5335,19 +5335,19 @@
         <v>4039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1022</v>
+        <v>1122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9252</v>
+        <v>9398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01406623772235247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003559051545721522</v>
+        <v>0.003907189945162777</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03222119649302631</v>
+        <v>0.03272747527411063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -5356,19 +5356,19 @@
         <v>154565</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132486</v>
+        <v>130883</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180183</v>
+        <v>180715</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1428481226489104</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1224430559225185</v>
+        <v>0.1209607768405153</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.166524020942306</v>
+        <v>0.167015314013199</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -5377,19 +5377,19 @@
         <v>158604</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135124</v>
+        <v>136399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>185022</v>
+        <v>185184</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1158397209565505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09869047935548753</v>
+        <v>0.09962179934033288</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1351342903106032</v>
+        <v>0.1352531050930597</v>
       </c>
     </row>
     <row r="20">
@@ -5406,19 +5406,19 @@
         <v>283106</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>277893</v>
+        <v>277747</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286123</v>
+        <v>286023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9859337622776475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9677788035069738</v>
+        <v>0.9672725247258894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964409484542786</v>
+        <v>0.9960928100548372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>861</v>
@@ -5427,19 +5427,19 @@
         <v>927460</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>901842</v>
+        <v>901310</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>949539</v>
+        <v>951142</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8571518773510896</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8334759790576942</v>
+        <v>0.8329846859868009</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8775569440774817</v>
+        <v>0.8790392231594846</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1129</v>
@@ -5448,19 +5448,19 @@
         <v>1210566</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1184148</v>
+        <v>1183986</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1234046</v>
+        <v>1232771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8841602790434495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8648657096893972</v>
+        <v>0.8647468949069403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9013095206445124</v>
+        <v>0.9003782006596672</v>
       </c>
     </row>
     <row r="21">
@@ -5552,19 +5552,19 @@
         <v>297716</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>267095</v>
+        <v>265708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>329927</v>
+        <v>333682</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08793276765908144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07888850927361492</v>
+        <v>0.07847903963928277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09744656511702887</v>
+        <v>0.09855573632356845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>256</v>
@@ -5573,19 +5573,19 @@
         <v>296109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264395</v>
+        <v>266019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>333100</v>
+        <v>335810</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08384563728827479</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07486545115151749</v>
+        <v>0.07532549406271249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09432005533508292</v>
+        <v>0.0950873194570932</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>554</v>
@@ -5594,19 +5594,19 @@
         <v>593825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>546178</v>
+        <v>548308</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>639769</v>
+        <v>640379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08584610738815009</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07895800360733582</v>
+        <v>0.07926592828895837</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09248805620130707</v>
+        <v>0.09257626144534324</v>
       </c>
     </row>
     <row r="23">
@@ -5623,19 +5623,19 @@
         <v>3088006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3055795</v>
+        <v>3052040</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3118627</v>
+        <v>3120014</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9120672323409186</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9025534348829711</v>
+        <v>0.9014442636764315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9211114907263851</v>
+        <v>0.9215209603607173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3070</v>
@@ -5644,19 +5644,19 @@
         <v>3235487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3198496</v>
+        <v>3195786</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3267201</v>
+        <v>3265577</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9161543627117252</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9056799446649162</v>
+        <v>0.9049126805429067</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9251345488484825</v>
+        <v>0.9246745059372874</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5996</v>
@@ -5665,19 +5665,19 @@
         <v>6323493</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6277549</v>
+        <v>6276939</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6371140</v>
+        <v>6369010</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9141538926118499</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9075119437986929</v>
+        <v>0.9074237385546567</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9210419963926642</v>
+        <v>0.9207340717110416</v>
       </c>
     </row>
     <row r="24">
@@ -6011,19 +6011,19 @@
         <v>49934</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38748</v>
+        <v>38608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64592</v>
+        <v>64690</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09068742618959554</v>
+        <v>0.09068742618959551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07037206651584373</v>
+        <v>0.07011695428721409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1173081402383956</v>
+        <v>0.1174869355493619</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -6032,19 +6032,19 @@
         <v>16004</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10692</v>
+        <v>10918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22975</v>
+        <v>23111</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03281302589110263</v>
+        <v>0.03281302589110262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02192189908474953</v>
+        <v>0.02238604467614967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04710526688345631</v>
+        <v>0.04738435218315847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -6053,19 +6053,19 @@
         <v>65938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53105</v>
+        <v>52844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81878</v>
+        <v>82863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06350291211169821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05114375961752483</v>
+        <v>0.05089223270084415</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07885471036434663</v>
+        <v>0.07980272600322472</v>
       </c>
     </row>
     <row r="5">
@@ -6082,19 +6082,19 @@
         <v>500684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486026</v>
+        <v>485928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>511870</v>
+        <v>512010</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9093125738104045</v>
+        <v>0.9093125738104046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8826918597616045</v>
+        <v>0.8825130644506382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9296279334841563</v>
+        <v>0.9298830457127859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>658</v>
@@ -6103,19 +6103,19 @@
         <v>471723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>464752</v>
+        <v>464616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>477035</v>
+        <v>476809</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9671869741088974</v>
+        <v>0.9671869741088973</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9528947331165438</v>
+        <v>0.9526156478168415</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9780781009152505</v>
+        <v>0.9776139553238503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1150</v>
@@ -6124,19 +6124,19 @@
         <v>972407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956467</v>
+        <v>955482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>985240</v>
+        <v>985501</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9364970878883018</v>
+        <v>0.9364970878883019</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9211452896356532</v>
+        <v>0.9201972739967753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9488562403824751</v>
+        <v>0.9491077672991559</v>
       </c>
     </row>
     <row r="6">
@@ -6228,19 +6228,19 @@
         <v>41767</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31836</v>
+        <v>30802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53057</v>
+        <v>54229</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08643595187737207</v>
+        <v>0.08643595187737206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06588371400768908</v>
+        <v>0.06374400713059059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1098013665494794</v>
+        <v>0.1122259020508543</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -6249,19 +6249,19 @@
         <v>10235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5885</v>
+        <v>6259</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15920</v>
+        <v>15944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02422537355276942</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01392988333860435</v>
+        <v>0.01481452870116424</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03768000888319577</v>
+        <v>0.03773794337579998</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -6270,19 +6270,19 @@
         <v>52002</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41680</v>
+        <v>40452</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65534</v>
+        <v>65684</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05741602949984664</v>
+        <v>0.05741602949984663</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04601905998745053</v>
+        <v>0.04466351277934484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07235745095990243</v>
+        <v>0.07252270722767282</v>
       </c>
     </row>
     <row r="8">
@@ -6299,19 +6299,19 @@
         <v>441445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430155</v>
+        <v>428983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>451376</v>
+        <v>452410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9135640481226279</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8901986334505206</v>
+        <v>0.8877740979491455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9341162859923109</v>
+        <v>0.9362559928694093</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -6320,19 +6320,19 @@
         <v>412257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406572</v>
+        <v>406548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416607</v>
+        <v>416233</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9757746264472306</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9623199911168043</v>
+        <v>0.9622620566242008</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9860701166613955</v>
+        <v>0.9851854712988358</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>998</v>
@@ -6341,19 +6341,19 @@
         <v>853702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>840170</v>
+        <v>840020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>864024</v>
+        <v>865252</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9425839705001533</v>
+        <v>0.9425839705001534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9276425490400979</v>
+        <v>0.9274772927723273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9539809400125496</v>
+        <v>0.955336487220655</v>
       </c>
     </row>
     <row r="9">
@@ -6445,19 +6445,19 @@
         <v>53992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41800</v>
+        <v>42761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67681</v>
+        <v>68634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1146944575539698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08879511693418816</v>
+        <v>0.09083683079032588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1437753246144119</v>
+        <v>0.1457984051047108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -6466,19 +6466,19 @@
         <v>18760</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12819</v>
+        <v>13159</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25502</v>
+        <v>26309</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1000534414852346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06836988884606492</v>
+        <v>0.07018339338851658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.136011245315387</v>
+        <v>0.1403160051994704</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -6487,19 +6487,19 @@
         <v>72751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60268</v>
+        <v>59641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87210</v>
+        <v>87891</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1105240216001425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09155870572343808</v>
+        <v>0.09060667901514466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1324888138022066</v>
+        <v>0.133523555617509</v>
       </c>
     </row>
     <row r="11">
@@ -6516,19 +6516,19 @@
         <v>416751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>403062</v>
+        <v>402109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428943</v>
+        <v>427982</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8853055424460303</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.856224675385588</v>
+        <v>0.8542015948952894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9112048830658117</v>
+        <v>0.9091631692096742</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>256</v>
@@ -6537,19 +6537,19 @@
         <v>168737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161995</v>
+        <v>161188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174678</v>
+        <v>174338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8999465585147652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8639887546846131</v>
+        <v>0.8596839948005297</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9316301111539351</v>
+        <v>0.9298166066114836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>672</v>
@@ -6558,19 +6558,19 @@
         <v>585490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571031</v>
+        <v>570350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>597973</v>
+        <v>598600</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8894759783998575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8675111861977934</v>
+        <v>0.8664764443824906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.908441294276562</v>
+        <v>0.9093933209848553</v>
       </c>
     </row>
     <row r="12">
@@ -6662,19 +6662,19 @@
         <v>129958</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110591</v>
+        <v>111176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150197</v>
+        <v>149803</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.114978789097503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09784383955340384</v>
+        <v>0.09836136455200059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1328853294763449</v>
+        <v>0.1325361564378015</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -6683,19 +6683,19 @@
         <v>51380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41438</v>
+        <v>40874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61633</v>
+        <v>61863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0596603592544887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04811623300552623</v>
+        <v>0.04746129571068685</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07156507766004516</v>
+        <v>0.07183280209907289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>263</v>
@@ -6704,19 +6704,19 @@
         <v>181338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161129</v>
+        <v>159135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204448</v>
+        <v>203623</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09105656869862304</v>
+        <v>0.09105656869862301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08090862550009589</v>
+        <v>0.07990750815899293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1026607399620679</v>
+        <v>0.1022465518639739</v>
       </c>
     </row>
     <row r="14">
@@ -6733,19 +6733,19 @@
         <v>1000321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>980082</v>
+        <v>980476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1019688</v>
+        <v>1019103</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8850212109024969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.867114670523655</v>
+        <v>0.8674638435621985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9021561604465959</v>
+        <v>0.9016386354479994</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1135</v>
@@ -6754,19 +6754,19 @@
         <v>809831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>799578</v>
+        <v>799348</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>819773</v>
+        <v>820337</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9403396407455115</v>
+        <v>0.9403396407455114</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9284349223399547</v>
+        <v>0.9281671979009273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9518837669944739</v>
+        <v>0.9525387042893133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2083</v>
@@ -6775,19 +6775,19 @@
         <v>1810152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1787042</v>
+        <v>1787867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1830361</v>
+        <v>1832355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9089434313013769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8973392600379316</v>
+        <v>0.8977534481360262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.919091374499904</v>
+        <v>0.9200924918410073</v>
       </c>
     </row>
     <row r="15">
@@ -6879,19 +6879,19 @@
         <v>48280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37494</v>
+        <v>38537</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62116</v>
+        <v>62168</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08531281632639588</v>
+        <v>0.08531281632639587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06625322655981418</v>
+        <v>0.06809565714221864</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1097603127117064</v>
+        <v>0.1098538144316756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -6900,19 +6900,19 @@
         <v>95399</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83270</v>
+        <v>82946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109005</v>
+        <v>110197</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1149208945280753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1003094148332854</v>
+        <v>0.09991947110951802</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1313111307360404</v>
+        <v>0.132747507893268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>251</v>
@@ -6921,19 +6921,19 @@
         <v>143679</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125743</v>
+        <v>126045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162362</v>
+        <v>162194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1029185735114967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09007054909192265</v>
+        <v>0.09028695996713672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1163013758264831</v>
+        <v>0.1161807670330887</v>
       </c>
     </row>
     <row r="17">
@@ -6950,19 +6950,19 @@
         <v>517640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>503804</v>
+        <v>503752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528426</v>
+        <v>527383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.914687183673604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8902396872882936</v>
+        <v>0.8901461855683246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9337467734401856</v>
+        <v>0.9319043428577812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1102</v>
@@ -6971,19 +6971,19 @@
         <v>734728</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>721122</v>
+        <v>719930</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>746857</v>
+        <v>747181</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8850791054719248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8686888692639595</v>
+        <v>0.8672524921067321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8996905851667145</v>
+        <v>0.9000805288904818</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1583</v>
@@ -6992,19 +6992,19 @@
         <v>1252369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1233686</v>
+        <v>1233854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1270305</v>
+        <v>1270003</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8970814264885034</v>
+        <v>0.8970814264885032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8836986241735172</v>
+        <v>0.8838192329669116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9099294509080774</v>
+        <v>0.9097130400328636</v>
       </c>
     </row>
     <row r="18">
@@ -7096,19 +7096,19 @@
         <v>2014</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6853</v>
+        <v>6222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008490106791301723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002127702143688217</v>
+        <v>0.002231526879001121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02888872020012986</v>
+        <v>0.02622889038794411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -7117,19 +7117,19 @@
         <v>96095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>83179</v>
+        <v>83573</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111028</v>
+        <v>111093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1139650569435713</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09864794842144392</v>
+        <v>0.09911526654412775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.13167589981758</v>
+        <v>0.1317520229107034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>179</v>
@@ -7138,19 +7138,19 @@
         <v>98109</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>84685</v>
+        <v>85011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113782</v>
+        <v>114723</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09080599696858524</v>
+        <v>0.0908059969685852</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07838137982114332</v>
+        <v>0.07868333821146344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1053121149080444</v>
+        <v>0.1061831974993083</v>
       </c>
     </row>
     <row r="20">
@@ -7167,19 +7167,19 @@
         <v>235214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230375</v>
+        <v>231006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236723</v>
+        <v>236699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9915098932086982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9711112797998703</v>
+        <v>0.9737711096120554</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9978722978563118</v>
+        <v>0.9977684731209988</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>981</v>
@@ -7188,19 +7188,19 @@
         <v>747100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>732167</v>
+        <v>732102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>760016</v>
+        <v>759622</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8860349430564287</v>
+        <v>0.8860349430564286</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8683241001824201</v>
+        <v>0.8682479770892966</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.901352051578556</v>
+        <v>0.9008847334558726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1090</v>
@@ -7209,19 +7209,19 @@
         <v>982314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>966641</v>
+        <v>965700</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>995738</v>
+        <v>995412</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9091940030314147</v>
+        <v>0.9091940030314146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8946878850919554</v>
+        <v>0.8938168025006917</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9216186201788568</v>
+        <v>0.9213166617885366</v>
       </c>
     </row>
     <row r="21">
@@ -7313,19 +7313,19 @@
         <v>325945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>296131</v>
+        <v>297011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>357259</v>
+        <v>361697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09480659821940386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08613475234247697</v>
+        <v>0.08639059987270589</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1039147868247301</v>
+        <v>0.1052056817479123</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>536</v>
@@ -7334,19 +7334,19 @@
         <v>287873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>264214</v>
+        <v>264847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313767</v>
+        <v>314664</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07925459952610676</v>
+        <v>0.07925459952610679</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07274114309110492</v>
+        <v>0.07291546029808513</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08638375534004712</v>
+        <v>0.08663069580667417</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>958</v>
@@ -7355,19 +7355,19 @@
         <v>613818</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>572379</v>
+        <v>575617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>656245</v>
+        <v>654529</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08681695908838506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08095602693132765</v>
+        <v>0.08141393867994262</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09281781470305135</v>
+        <v>0.09257514429201058</v>
       </c>
     </row>
     <row r="23">
@@ -7384,19 +7384,19 @@
         <v>3112055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3080741</v>
+        <v>3076303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3141869</v>
+        <v>3140989</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9051934017805962</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8960852131752699</v>
+        <v>0.8947943182520878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.913865247657523</v>
+        <v>0.9136094001272941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4703</v>
@@ -7405,19 +7405,19 @@
         <v>3344377</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3318483</v>
+        <v>3317586</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3368036</v>
+        <v>3367403</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9207454004738931</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9136162446599533</v>
+        <v>0.9133693041933258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9272588569088952</v>
+        <v>0.9270845397019148</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7576</v>
@@ -7426,19 +7426,19 @@
         <v>6456432</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6414005</v>
+        <v>6415721</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6497871</v>
+        <v>6494633</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.913183040911615</v>
+        <v>0.9131830409116148</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9071821852969483</v>
+        <v>0.9074248557079894</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9190439730686722</v>
+        <v>0.918586061320057</v>
       </c>
     </row>
     <row r="24">
